--- a/data/trans_camb/P3A_R1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.652917525708236</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.1831199044953435</v>
+        <v>-0.1831199044953408</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.5094317820299094</v>
@@ -655,7 +655,7 @@
         <v>0.8126005259973299</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.403484002217971</v>
+        <v>1.403484002217974</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.426306694661092</v>
@@ -664,7 +664,7 @@
         <v>2.381171956312753</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.48810101807958</v>
+        <v>0.4881010180795786</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5672130505662913</v>
+        <v>-0.7322572939415372</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.209829347025349</v>
+        <v>1.066845435793502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.254824197912837</v>
+        <v>-3.75835860822647</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.495207831691896</v>
+        <v>-1.430508532672382</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.49875592476646</v>
+        <v>-1.268890681693535</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7346016805268623</v>
+        <v>-0.9297696664588634</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.5010669327744314</v>
+        <v>-0.4473008249683182</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4035813165196805</v>
+        <v>0.1974297869894881</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.433429061884072</v>
+        <v>-1.547917459465633</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.698253683280039</v>
+        <v>6.493847262100798</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.957440875227974</v>
+        <v>8.576594999442573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.748420459637765</v>
+        <v>3.790791481621327</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.464023564466881</v>
+        <v>2.527589463586647</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.835637148534058</v>
+        <v>3.206118255098468</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.550866573176193</v>
+        <v>3.46211185307674</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.46579220844206</v>
+        <v>3.30360461923267</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.618513396127726</v>
+        <v>4.411853297439499</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.600579185952972</v>
+        <v>2.553190898027949</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2720075675972323</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.01070511126088231</v>
+        <v>-0.01070511126088215</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.06898961635465567</v>
@@ -760,7 +760,7 @@
         <v>0.1100461347636449</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1900663175883867</v>
+        <v>0.190066317588387</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1223258778562898</v>
@@ -769,7 +769,7 @@
         <v>0.2042190161295904</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.04186153352755635</v>
+        <v>0.04186153352755623</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03117366169041279</v>
+        <v>-0.03906664872225696</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.05805160261899837</v>
+        <v>0.05806870432425052</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2243486650663948</v>
+        <v>-0.2079021873621243</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1920015294510844</v>
+        <v>-0.169756830420914</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1890501442848412</v>
+        <v>-0.1582205842033783</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1003111689518852</v>
+        <v>-0.1105662072845434</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04334117735602065</v>
+        <v>-0.03834718573183555</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.03190598163305162</v>
+        <v>0.01335861231991592</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1181307726404542</v>
+        <v>-0.1269966193487508</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4325840969177288</v>
+        <v>0.421369596527509</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5638437079656089</v>
+        <v>0.5493954953681288</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2303911959970378</v>
+        <v>0.2323751806706804</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3892469034994619</v>
+        <v>0.390953539889602</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4305211962292652</v>
+        <v>0.5126719667646807</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5489426129106514</v>
+        <v>0.5249089503562149</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3149015628182174</v>
+        <v>0.3050186092909483</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4305651418189205</v>
+        <v>0.4083514660061509</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2400294975501172</v>
+        <v>0.2391915373253377</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>8.191805755576228</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>11.39418284162145</v>
+        <v>11.39418284162146</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>6.489366665921622</v>
@@ -878,7 +878,7 @@
         <v>10.43642160109604</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>9.677451733832607</v>
+        <v>9.677451733832617</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.608611900250343</v>
+        <v>4.876405868755145</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.707285414493228</v>
+        <v>9.603027772702582</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.957923830502022</v>
+        <v>5.052813794672508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.349721339171851</v>
+        <v>2.371587451944759</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.850493726409186</v>
+        <v>5.863568099700749</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.077647407986399</v>
+        <v>8.971051301093148</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.812100479897437</v>
+        <v>4.695350201485079</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.390214640769218</v>
+        <v>8.622521993431901</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.799988159395592</v>
+        <v>7.749245500001035</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.67114486581876</v>
+        <v>10.76690216398585</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.85426272381423</v>
+        <v>15.57080411317489</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.90182090642745</v>
+        <v>11.25795910564118</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.279822785085837</v>
+        <v>7.244530445981703</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>10.47043538633395</v>
+        <v>10.57235851904425</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>13.48930642758823</v>
+        <v>13.58858713885266</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.557898747557408</v>
+        <v>8.597401696348097</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.50054997318964</v>
+        <v>12.70045935366652</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.7267012238546</v>
+        <v>11.61727221064329</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.6926987759365537</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9634916577234285</v>
+        <v>0.9634916577234288</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3911963840676515</v>
@@ -983,7 +983,7 @@
         <v>0.6291354153856363</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.5833826812630692</v>
+        <v>0.5833826812630699</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2030157399166682</v>
+        <v>0.2137525409574607</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4316865992289003</v>
+        <v>0.4209561663135962</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2169941964305555</v>
+        <v>0.2243448580614551</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1798054315927497</v>
+        <v>0.1841888358589988</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4441857294010932</v>
+        <v>0.4508607099774355</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6826540561034529</v>
+        <v>0.6735999250795185</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2741376293057486</v>
+        <v>0.2626857251710332</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4719171617733263</v>
+        <v>0.4875818081115346</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4391513208351237</v>
+        <v>0.4426831825557661</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5456100940158191</v>
+        <v>0.5545391242890634</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8166529424005804</v>
+        <v>0.7965083623704843</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5549365146818542</v>
+        <v>0.5888015592755653</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6826748298124556</v>
+        <v>0.6850592486781985</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9857897242569859</v>
+        <v>0.9989164110816422</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.282301132589664</v>
+        <v>1.286618623049197</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5568019495969235</v>
+        <v>0.5542705855118616</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7962268361294068</v>
+        <v>0.8166086539661764</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.755281958705923</v>
+        <v>0.753089637440571</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>14.58527814415532</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10.68733436425718</v>
+        <v>10.68733436425717</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.949907888227959</v>
@@ -1092,7 +1092,7 @@
         <v>10.71956940812193</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7.535316470560832</v>
+        <v>7.535316470560821</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.747519677599171</v>
+        <v>3.088470136504386</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.46506379436301</v>
+        <v>8.655430955014893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.124460747307523</v>
+        <v>5.192886978240396</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.991306251494763</v>
+        <v>-3.096090534452139</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6792578382832145</v>
+        <v>1.037926230679629</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.3587989754339352</v>
+        <v>-0.154796653381554</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.912708694489147</v>
+        <v>1.840322660896915</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.39748906082086</v>
+        <v>6.796095808319978</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.882068971909283</v>
+        <v>3.833888852747855</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.34907635568968</v>
+        <v>15.52822301653424</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.16713834620057</v>
+        <v>20.57092251896831</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.09347257903721</v>
+        <v>16.54606266746232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.025589258780718</v>
+        <v>8.462108089778242</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.78563347447862</v>
+        <v>12.74160897721198</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.520446435560011</v>
+        <v>9.403786746755308</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.01528699873125</v>
+        <v>10.98864108519901</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.69800997535333</v>
+        <v>14.76373414438756</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.16469182742261</v>
+        <v>11.26120150473291</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5282006286242532</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3870379895209841</v>
+        <v>0.3870379895209838</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1166966972001904</v>
@@ -1197,7 +1197,7 @@
         <v>0.4040186256600717</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2840047103051569</v>
+        <v>0.2840047103051564</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.09189709963180179</v>
+        <v>0.106809644704215</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2707533068373014</v>
+        <v>0.2811501643591223</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1656123871713569</v>
+        <v>0.1667360095773863</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1035386650373242</v>
+        <v>-0.1098822339486387</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02236298017523942</v>
+        <v>0.03791582928130119</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.01304149070212754</v>
+        <v>-0.00540660963087432</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06238750985514225</v>
+        <v>0.06233142283746673</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2237699854755798</v>
+        <v>0.2381516097952106</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1338589273149642</v>
+        <v>0.133840629171423</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6128463207067821</v>
+        <v>0.6238702580718835</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8198849989294709</v>
+        <v>0.8455664088001389</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6602597238788165</v>
+        <v>0.6722266979878111</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4101793006317073</v>
+        <v>0.3773904580233864</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5808199356197943</v>
+        <v>0.5807518782932425</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4322125268914885</v>
+        <v>0.4283316112512982</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4058095114867349</v>
+        <v>0.4400408536886596</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6052604500005357</v>
+        <v>0.6025068747337583</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4610015178243443</v>
+        <v>0.4742573728725828</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>6.613317121488044</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.376770960233957</v>
+        <v>9.37677096023396</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.672549260542177</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.28426294176766</v>
+        <v>4.503086862531197</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.54558577397256</v>
+        <v>9.270293992558793</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.967259200075803</v>
+        <v>5.930140309388969</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.207243166827674</v>
+        <v>1.370181810182583</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.952535361270309</v>
+        <v>4.844549876278127</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.944684625019592</v>
+        <v>7.702710591303371</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.278080285984471</v>
+        <v>3.371739669920947</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.534270086817674</v>
+        <v>7.608116642936928</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.429784507623277</v>
+        <v>7.30487739658918</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.672862223139553</v>
+        <v>8.818179780849817</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.88695225267983</v>
+        <v>13.69721037674297</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.22771925126208</v>
+        <v>10.46507261948749</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.401650273189146</v>
+        <v>4.582852342351913</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.312714515543652</v>
+        <v>8.433081121412258</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.13875490144824</v>
+        <v>10.8995277261178</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.037837067852796</v>
+        <v>6.163117123011704</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.35539881843295</v>
+        <v>10.38355473216395</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.11669010995899</v>
+        <v>10.19715279250086</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.5515308131600024</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7819945751141129</v>
+        <v>0.7819945751141131</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2851703152444162</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.192460573022719</v>
+        <v>0.2033709098470102</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4387257918484742</v>
+        <v>0.4151896303008161</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2699685776364047</v>
+        <v>0.2660014657991111</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.09276363070553145</v>
+        <v>0.1016246106671015</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3860588962999114</v>
+        <v>0.3767062574104959</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6226869717010649</v>
+        <v>0.598415339080916</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1927864177380146</v>
+        <v>0.196579253346728</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4398969481407723</v>
+        <v>0.4456741886088005</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4313772965195352</v>
+        <v>0.4287597024616124</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.432426782848485</v>
+        <v>0.445148284689292</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7105175056478887</v>
+        <v>0.6858827054826113</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5127946957947589</v>
+        <v>0.5223126793689343</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3936844827591871</v>
+        <v>0.4052959231313449</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7416245336106014</v>
+        <v>0.7702142370342979</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.005369121909798</v>
+        <v>0.9866288160290586</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3831967521935504</v>
+        <v>0.3939042679014059</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6544661704384835</v>
+        <v>0.6618537778582982</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6437237671678129</v>
+        <v>0.6451137093115601</v>
       </c>
     </row>
     <row r="28">
